--- a/medicine/Mort/Cimetière_arménien_de_Pangaltı/Cimetière_arménien_de_Pangaltı.xlsx
+++ b/medicine/Mort/Cimetière_arménien_de_Pangaltı/Cimetière_arménien_de_Pangaltı.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_arm%C3%A9nien_de_Pangalt%C4%B1</t>
+          <t>Cimetière_arménien_de_Pangaltı</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière arménien de Pangaltı (en turc Pangaltı Ermenî Mezarlığı ou Surp Agop Mezarlığı, en arménien Սուրբ Հակոբ հայկական գերեզմանատուն) est un cimetière situé sur la rive européenne d'Istanbul, dans le district de Şişli, dans le quartier de İnönü. Situé sur la rive nord de la Corne d'Or, il a été créé au XVIe siècle, à l'époque en périphérie de Constantinople. Il a été détruit après l'établissement de la république de Turquie et la guerre qui l'a précédée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_arm%C3%A9nien_de_Pangalt%C4%B1</t>
+          <t>Cimetière_arménien_de_Pangaltı</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière est mis en service en 1560 après une épidémie de peste[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est mis en service en 1560 après une épidémie de peste.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_arm%C3%A9nien_de_Pangalt%C4%B1</t>
+          <t>Cimetière_arménien_de_Pangaltı</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Emplacement actuel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espace du cimetière sous la forme existante au début du XXe siècle est occupé par :
 une partie de la place Taksim ;
